--- a/DOM_Banner/output/dept_banner/Manish Shah_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Manish Shah_2022.xlsx
@@ -878,7 +878,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2388687352", "https://openalex.org/W2132780578", "https://openalex.org/W1982500501", "https://openalex.org/W2370187191", "https://openalex.org/W4375824607", "https://openalex.org/W2369854048", "https://openalex.org/W2374291020", "https://openalex.org/W2355907197", "https://openalex.org/W3171042291", "https://openalex.org/W2390961115")</t>
+          <t>c("https://openalex.org/W2132780578", "https://openalex.org/W1982500501", "https://openalex.org/W2013003323", "https://openalex.org/W1981076832", "https://openalex.org/W2024773645", "https://openalex.org/W2001717001", "https://openalex.org/W2043147644", "https://openalex.org/W2551047143", "https://openalex.org/W2485487512", "https://openalex.org/W82539701")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2061639233", "https://openalex.org/W2105407582", "https://openalex.org/W1904768480", "https://openalex.org/W2127974033", "https://openalex.org/W4251122884", "https://openalex.org/W136036310", "https://openalex.org/W1528935057", "https://openalex.org/W2884261249", "https://openalex.org/W2059503272", "https://openalex.org/W2066120982")</t>
+          <t>c("https://openalex.org/W2105407582", "https://openalex.org/W1904768480", "https://openalex.org/W2005425377", "https://openalex.org/W2037356751", "https://openalex.org/W1991692137", "https://openalex.org/W33605581", "https://openalex.org/W2120818309", "https://openalex.org/W2396636283", "https://openalex.org/W2158607621", "https://openalex.org/W2033835214")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Manish Shah_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Manish Shah_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291108864</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Clinical practice guidelines for management of medullary thyroid carcinoma: An AGREE II appraisal</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>American Journal of Otolaryngology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjoto.2022.103606</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36037729</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjoto.2022.103606</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.); Department of Pharmaceutical Sciences, Albany College of Pharmacy and Health Sciences, Albany, New York (M.B.S.); Department of Pharmaceutical Sciences, The University of Tennessee Health Science Center, Memphis, Tennessee (S.K.); Department of Pharmaceutical Sciences, West Virginia University, Morgantown, West Virginia (G.D.S.); Department of Pharmacology and Toxicology, University of Arizona, 1703 E. Mabel Street, P.O. Box 210207, Tucson, Arizona (J.R.H.).; Departments of Medicinal Chemistry, Pharmacology, and Biological Chemistry and the Program in Biophysics, University of Michigan, Ann Arbor, Michigan (E.E.S.); Pharmaceutical and Biomedical Sciences Department, University of Georgia, 240 W. Green St., Athens, Georgia (A.G.R.); Unaffiliated (J.C.S.)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307650852</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Four Decades of Cytochrome P450 2B Research: From Protein Adducts to Protein Structures and Beyond</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Drug Metabolism and Disposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society for Pharmacology and Experimental Therapeutics</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1124/dmd.122.001109</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36310033</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1124/dmd.122.001109</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA; Qualcomm Technology Inc.,San Diego,USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286571978</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>From System-on-Chip (SoC) to System on Multi-Chip (SoMC) architectures: Scaling integrated systems beyond the limitations of deep-submicron single chip technologies</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022 IEEE Symposium on VLSI Technology and Circuits (VLSI Technology and Circuits)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/vlsitechnologyandcir46769.2022.9830253</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/vlsitechnologyandcir46769.2022.9830253</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Albany College of Pharmacy and Health Sciences, 106 New Scotland Ave, BRB104C, Albany, NY 12208, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294131779</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Inhibition of CYP2C8 by Acyl Glucuronides of Gemfibrozil and Clopidogrel: Pharmacological Significance, Progress and Challenges</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Biomolecules</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/biom12091218</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36139056</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/biom12091218</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Otorhinolaryngology-Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, USA.; Department of Otorhinolaryngology–Head and Neck Surgery, University of Pennsylvania, Philadelphia, USA; Perelman School of Medicine at the University of Pennsylvania, Philadelphia, USA; Sidney Kimmel Medical College, Thomas Jefferson University, Philadelphia, USA; Drexel University College of Medicine, Drexel University, Philadelphia, USA; Department of Surgical Oncology, University of Pennsylvania, Philadelphia, USA; Department of Pediatrics, University of Texas Health-San Antonio, San Antonio, USA; Department of Otorhinolaryngology–Head and Neck Surgery, University of Pennsylvania, Philadelphia, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296322406</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Clinical Practice Guidelines on Sentinel Lymph Node Biopsy for Melanoma: A Systematic Review and Quality Appraisal Using the AGREE II Instrument</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Annals of Surgical Oncology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-12525-w</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36121581</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-12525-w</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Perelman School of Medicine, University of Pennsylvania, Philadelphia, PA 19104, USA; Department of Otorhinolaryngology: Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA.; Drexel University College of Medicine, Drexel University, Philadelphia, PA 19102, USA; Department of Otorhinolaryngology: Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA.; Department of Otorhinolaryngology: Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA.; Department of Otorhinolaryngology: Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA.; Department of Otorhinolaryngology: Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA.; Department of Otorhinolaryngology – Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA; Department of Otorhinolaryngology – Head and Neck Surgery, University of Pennsylvania, Philadelphia, PA, 19104, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3169216453</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Use of the O‐Z flap as an alternative to free tissue transfer for reconstruction of large scalp defects</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-04-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>World Journal of Otorhinolaryngology - Head and Neck Surgery</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>KeAi</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.wjorl.2021.04.006</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36474661</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.wjorl.2021.04.006</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA.; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia; College of Medicine, Drexel University, Philadelphia; College of Medicine, Drexel University, Philadelphia; Perelman School of Medicine, University of Pennsylvania, Philadelphia; Department of Pediatrics, University of Texas Health Science Center at San Antonio, USA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226070287</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Clinical practice guidelines on nutrition management in head and neck cancer: a systematic quality appraisal using the Appraisal of Guidelines for Research and Evaluation 2nd edition instrument</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>The Journal of Laryngology &amp; Otology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cambridge University Press</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/s002221512200055x</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35172910</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/s002221512200055x</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286750856</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Clarification of exceptional point contribution for photonic sensing</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2207.10198</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2207.10198</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Perelman School of Medicine, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Drexel University College of Medicine, Drexel University, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA; Department of Neurosurgery, University of Pennsylvania, Philadelphia, PA; Department of Neurosurgery, University of Pennsylvania, Philadelphia, PA; Department of Endocrinology, University of Pennsylvania, Philadelphia, PA; Department of Endocrinology, University of Pennsylvania, Philadelphia, PA; Department of Otorhinolaryngology, University of Pennsylvania, Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291899363</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Optimizing Perioperative Care in Transsphenoidal Pituitary Surgery: Considerations for Enhanced Recovery After Surgery</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-08-15</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Craniofacial Surgery</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/scs.0000000000008893</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35968948</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/scs.0000000000008893</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,76 +1235,81 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310922457</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Visible-telecom broadband optical isolator based on dynamic modulation
   in thin-film lithium niobate</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-12-06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2212.03436</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2212.03436</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
